--- a/Question_Set2/Software skills/Snowflake.xlsx
+++ b/Question_Set2/Software skills/Snowflake.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You were recently hired as a Snowflake engineer in an e-commerce company that wants to move its legacy database to Snowflake for better performance and scalability. You need to design the data warehouse in Snowflake while keeping the schema simple. Which schema should you consider for data warehouse design?', 'ques_type': 2, 'options': ['Snowflake schema', 'Traditional schema', 'Star schema', 'Hybrid schema'], 'score': 'Star schema'}, {'title': 'You want to write a query on a large customer transactions table in Snowflake to find the five customers with the highest total transaction amounts. The transactions table consists of four columns: transaction_id (INT), customer_id (INT), transaction_amount (DECIMAL), and transaction_date (DATE). How should you write a query to retrieve and present this information?', 'ques_type': 2, 'options': ['SELECT customer_id, SUM(transaction_amount) AS total_amount\nFROM transactions\nGROUP BY customer_id\nORDER BY total_amount DESC\nLIMIT 5\n', 'SELECT customer_id, MAX(transaction_amount) AS max_amount\nFROM transactions\nGROUP BY customer_id\nORDER BY max_amount DESC\nLIMIT 5\n', 'SELECT customer_id, COUNT(*) AS transaction_count\nFROM transactions\nGROUP BY customer_id\nORDER BY transaction_count DESC\nLIMIT 5\n', 'SELECT customer_id, AVG(transaction_amount) AS average_amount\nFROM transactions\nGROUP BY customer_id\nORDER BY average_amount DESC\nLIMIT 5\n'], 'score': 'SELECT customer_id, SUM(transaction_amount) AS total_amount\nFROM transactions\nGROUP BY customer_id\nORDER BY total_amount DESC\nLIMIT 5'}, {'title': 'You are a Snowflake engineer at an analytics company. You need to load customer CSV data, which is available in an AWS S3 bucket, into a Snowflake data warehouse. The stage and table have already been created in the data warehouse.How should you create a file format named CSV_FORMATin Snowflake to achieve this?', 'ques_type': 2, 'options': ['CREATE FILE FORMAT CSV_FORMAT\nTYPE = CSV\nFIELD_DELIMITER = \' \'\nSKIP_HEADER = 0\n', 'CREATE FILE FORMAT CSV_FORMAT\nTYPE = \'CSV\'\nFIELD_DELIMITER = \',\'\nSKIP_HEADER = 1\n', 'CREATE FILE FORMAT CSV_FORMAT\nTYPE = \'CSV\'\nFIELD_DELIMITER = \'\'\nSKIP_HEADER = 1\n', 'CREATE FILE FORMAT CSV_FORMAT\nTYPE = \'CSV\'\nFIELD_DELIMITER = \',\'\nSKIP_HEADER = 0\n'], 'score': "CREATE FILE FORMAT CSV_FORMAT\nTYPE = 'CSV'\nFIELD_DELIMITER = ','\nSKIP_HEADER = 1"}, {'title': 'While monitoring Snowflake performance, you noticed that a few queries – which are using a small warehouse – are taking longer than expected to execute due to high concurrency and resource contention. As a result, users are experiencing significant delays. You want to resolve this performance issue while keeping costs in mind.What should you do first?', 'ques_type': 2, 'options': ['Switch to a large warehouse.', 'Switch to an extra-large warehouse.', 'Switch to a medium warehouse.', 'Switch to a 2x-large warehouse.'], 'score': 'Switch to a medium warehouse.'}]</t>
+    <t>questions = [
+    {
+        "title": "You were recently hired as a Snowflake engineer in an e-commerce company that wants to move its legacy database to Snowflake for better performance and scalability. You need to design the data warehouse in Snowflake while keeping the schema simple. Which schema should you consider for data warehouse design?",
+        "ques_type": 2,
+        "options": [
+            "Snowflake schema",
+            "Traditional schema",
+            "Star schema",
+            "Hybrid schema"
+        ],
+        "score": "Star schema"
+    },
+    {
+        "title": "You want to write a query on a large customer transactions table in Snowflake to find the five customers with the highest total transaction amounts. The transactions table consists of four columns: transaction_id (INT), customer_id (INT), transaction_amount (DECIMAL), and transaction_date (DATE). How should you write a query to retrieve and present this information?",
+        "ques_type": 2,
+        "options": [
+            "SELECT customer_id, SUM(transaction_amount) AS total_amount\nFROM transactions\nGROUP BY customer_id\nORDER BY total_amount DESC\nLIMIT 5\n",
+            "SELECT customer_id, MAX(transaction_amount) AS max_amount\nFROM transactions\nGROUP BY customer_id\nORDER BY max_amount DESC\nLIMIT 5\n",
+            "SELECT customer_id, COUNT(*) AS transaction_count\nFROM transactions\nGROUP BY customer_id\nORDER BY transaction_count DESC\nLIMIT 5\n",
+            "SELECT customer_id, AVG(transaction_amount) AS average_amount\nFROM transactions\nGROUP BY customer_id\nORDER BY average_amount DESC\nLIMIT 5\n"
+        ],
+        "score": "SELECT customer_id, SUM(transaction_amount) AS total_amount\nFROM transactions\nGROUP BY customer_id\nORDER BY total_amount DESC\nLIMIT 5"
+    },
+    {
+        "title": "You are a Snowflake engineer at an analytics company. You need to load customer CSV data, which is available in an AWS S3 bucket, into a Snowflake data warehouse. The stage and table have already been created in the data warehouse.How should you create a file format named CSV_FORMATin Snowflake to achieve this?",
+        "ques_type": 2,
+        "options": [
+            "CREATE FILE FORMAT CSV_FORMAT\nTYPE = CSV\nFIELD_DELIMITER = ' '\nSKIP_HEADER = 0\n",
+            "CREATE FILE FORMAT CSV_FORMAT\nTYPE = 'CSV'\nFIELD_DELIMITER = ','\nSKIP_HEADER = 1\n",
+            "CREATE FILE FORMAT CSV_FORMAT\nTYPE = 'CSV'\nFIELD_DELIMITER = ''\nSKIP_HEADER = 1\n",
+            "CREATE FILE FORMAT CSV_FORMAT\nTYPE = 'CSV'\nFIELD_DELIMITER = ','\nSKIP_HEADER = 0\n"
+        ],
+        "score": "CREATE FILE FORMAT CSV_FORMAT\nTYPE = 'CSV'\nFIELD_DELIMITER = ','\nSKIP_HEADER = 1"
+    },
+    {
+        "title": "While monitoring Snowflake performance, you noticed that a few queries \u2013 which are using a small warehouse \u2013 are taking longer than expected to execute due to high concurrency and resource contention. As a result, users are experiencing significant delays. You want to resolve this performance issue while keeping costs in mind.What should you do first?",
+        "ques_type": 2,
+        "options": [
+            "Switch to a large warehouse.",
+            "Switch to an extra-large warehouse.",
+            "Switch to a medium warehouse.",
+            "Switch to a 2x-large warehouse."
+        ],
+        "score": "Switch to a medium warehouse."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
